--- a/inventvmScripts/Input_CurrentSense/input_CurrentSense_data.xlsx
+++ b/inventvmScripts/Input_CurrentSense/input_CurrentSense_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smplab\Documents\Franco\Inventvm\SW\inventvmScripts\Input_CurrentSense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F187F8C-9027-4F17-AD80-E2EAD4B58A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3424C-5A3E-4C26-990C-F79C958B9150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vbus_5V" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2124,6 +2124,666 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vbus_5V!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vbus_5V!$C$4:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0.11003311999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15746552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20507979999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25281815999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30029923999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34777835999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39535595999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44280011999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49062699999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53815271999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58569755999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63340511999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68096444</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72877352000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77626963999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82391227999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87148579999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91895287999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96675067999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0142918400000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0619947599999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1095079999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1571148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2049422399999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.25240544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2999977200000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3476891599999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3952272800000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.44303848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4906806399999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5382703999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.58587688</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6334267599999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6809767199999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.72890392</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7765107599999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8239732</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8714157999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9189655999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9668978399999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.01448772</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.06239332</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1099177999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1572654399999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2050254799999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.25308756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2995231199999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3494547599999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3977515199999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.44600704</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4925428399999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5400311599999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5877470000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6354783199999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.6830244399999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7303302399999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.7774031999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8245989999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8716034000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.91896472</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.9661917599999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0131296000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vbus_5V!$E$4:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>-5.7919368163876506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.3246497233172034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.6551310331392788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.8129569440343944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.9380097623623458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.0315352103851243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.1012193985895466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.1541350192045829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.1960025029197254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.2270553166580598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.2554589244831362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.2790083975007898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3101834620028034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.3444134262726877</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.3450029071084044</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.3608752530062995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.3703495799931602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.3830682428461403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.3902416339650179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.3955809404914419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.4137502453401813</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.4168422737826072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.4270669491912011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.4310059148561134</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.4322040333041013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.4405303764686712</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.4500621215206522</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.4555322448970545</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.452316413627444</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.4569720463398523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.4651858021840569</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.473661448422142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.4732370537996946</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7.4728257762546502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7.481540407115272</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.4863508988822547</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.4885853243348146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.4902102261293315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.4880250002918149</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.4961984998163338</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.4843736265118599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.4995966761083128</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.5051108507639412</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.5048849517099612</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-7.5149496911935882</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.4718375458963608</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.4195597563724389</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.5008735377819979</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.5105847967515862</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.5400191918498951</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.5097933020882319</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.5026472706736209</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.5239975739514087</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-7.5261590512723169</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.5252447896076564</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.5268395234490022</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-7.5270447049243652</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.5465877103262882</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.5277848039530877</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-7.5301429773704074</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-7.5284618230481364</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-7.5505885226443805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCEA-4F1E-9C38-20E526382BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343096504"/>
+        <c:axId val="343098304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343096504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343098304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343098304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343096504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2244,6 +2904,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3277,6 +3977,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3868,16 +5084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>10477</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196215</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69532</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3897,6 +5113,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163829</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED7206F-8F3F-8E2C-5B91-DAD0FA51561E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4193,7 +5445,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A1048576 F1:F1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
